--- a/team_specific_matrix/Temple_B.xlsx
+++ b/team_specific_matrix/Temple_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1658986175115207</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C2">
-        <v>0.6405529953917051</v>
+        <v>0.6227106227106227</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009216589861751152</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1013824884792627</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08294930875576037</v>
+        <v>0.08058608058608059</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01398601398601399</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04895104895104895</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7692307692307693</v>
+        <v>0.7630057803468208</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1678321678321678</v>
+        <v>0.1734104046242775</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.76</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.24</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04137931034482759</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006896551724137931</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02758620689655172</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2206896551724138</v>
+        <v>0.2329545454545454</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02068965517241379</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1931034482758621</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="R6">
-        <v>0.07586206896551724</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="S6">
-        <v>0.4137931034482759</v>
+        <v>0.4147727272727273</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1782945736434109</v>
+        <v>0.1933701657458564</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02325581395348837</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01550387596899225</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1085271317829457</v>
+        <v>0.1215469613259668</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1937984496124031</v>
+        <v>0.1657458563535912</v>
       </c>
       <c r="R7">
-        <v>0.08527131782945736</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="S7">
-        <v>0.3953488372093023</v>
+        <v>0.3812154696132597</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1292775665399239</v>
+        <v>0.1141141141141141</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01520912547528517</v>
+        <v>0.01501501501501501</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08365019011406843</v>
+        <v>0.07807807807807808</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1140684410646388</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01140684410646388</v>
+        <v>0.01201201201201201</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1634980988593156</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="R8">
-        <v>0.09125475285171103</v>
+        <v>0.09309309309309309</v>
       </c>
       <c r="S8">
-        <v>0.3916349809885932</v>
+        <v>0.3993993993993994</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1285714285714286</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1142857142857143</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02857142857142857</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.15</v>
+        <v>0.143646408839779</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="S9">
-        <v>0.4071428571428571</v>
+        <v>0.4198895027624309</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1122448979591837</v>
+        <v>0.1087151841868823</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02040816326530612</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E10">
-        <v>0.001133786848072562</v>
+        <v>0.0008984725965858042</v>
       </c>
       <c r="F10">
-        <v>0.07029478458049887</v>
+        <v>0.06828391734052111</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1258503401360544</v>
+        <v>0.1248876909254268</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01247165532879819</v>
+        <v>0.01078167115902965</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2131519274376417</v>
+        <v>0.2129380053908356</v>
       </c>
       <c r="R10">
-        <v>0.08276643990929705</v>
+        <v>0.08265947888589398</v>
       </c>
       <c r="S10">
-        <v>0.3616780045351474</v>
+        <v>0.3719676549865229</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1443298969072165</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08247422680412371</v>
+        <v>0.07279693486590039</v>
       </c>
       <c r="K11">
-        <v>0.1958762886597938</v>
+        <v>0.1877394636015326</v>
       </c>
       <c r="L11">
-        <v>0.5567010309278351</v>
+        <v>0.5708812260536399</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02061855670103093</v>
+        <v>0.01915708812260536</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8113207547169812</v>
+        <v>0.8026315789473685</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.169811320754717</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="K12">
-        <v>0.009433962264150943</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="L12">
-        <v>0.009433962264150943</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.006578947368421052</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5151515151515151</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4242424242424243</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06060606060606061</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03174603174603174</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07936507936507936</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="I15">
-        <v>0.07936507936507936</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="J15">
-        <v>0.3968253968253968</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
-        <v>0.07936507936507936</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03174603174603174</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03174603174603174</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2698412698412698</v>
+        <v>0.2545454545454545</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01418439716312057</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.09929078014184398</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="I16">
-        <v>0.07092198581560284</v>
+        <v>0.08</v>
       </c>
       <c r="J16">
-        <v>0.4184397163120567</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0.1276595744680851</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02127659574468085</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06382978723404255</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1843971631205674</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01639344262295082</v>
+        <v>0.01319261213720317</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1672131147540984</v>
+        <v>0.1688654353562005</v>
       </c>
       <c r="I17">
-        <v>0.09836065573770492</v>
+        <v>0.1029023746701847</v>
       </c>
       <c r="J17">
-        <v>0.3901639344262295</v>
+        <v>0.3825857519788918</v>
       </c>
       <c r="K17">
-        <v>0.1049180327868852</v>
+        <v>0.1160949868073879</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009836065573770493</v>
+        <v>0.01055408970976253</v>
       </c>
       <c r="N17">
-        <v>0.003278688524590164</v>
+        <v>0.002638522427440633</v>
       </c>
       <c r="O17">
-        <v>0.06229508196721312</v>
+        <v>0.06860158311345646</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1475409836065574</v>
+        <v>0.1345646437994723</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007575757575757576</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1818181818181818</v>
+        <v>0.1597633136094675</v>
       </c>
       <c r="I18">
-        <v>0.09848484848484848</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="J18">
-        <v>0.4621212121212121</v>
+        <v>0.4556213017751479</v>
       </c>
       <c r="K18">
-        <v>0.09848484848484848</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007575757575757576</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04545454545454546</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09848484848484848</v>
+        <v>0.1183431952662722</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01271676300578035</v>
+        <v>0.01348920863309352</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1895953757225433</v>
+        <v>0.1888489208633093</v>
       </c>
       <c r="I19">
-        <v>0.09132947976878612</v>
+        <v>0.08992805755395683</v>
       </c>
       <c r="J19">
-        <v>0.3907514450867052</v>
+        <v>0.3893884892086331</v>
       </c>
       <c r="K19">
-        <v>0.09248554913294797</v>
+        <v>0.09532374100719425</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02543352601156069</v>
+        <v>0.02428057553956835</v>
       </c>
       <c r="N19">
-        <v>0.0023121387283237</v>
+        <v>0.002697841726618705</v>
       </c>
       <c r="O19">
-        <v>0.05895953757225433</v>
+        <v>0.06115107913669065</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1364161849710983</v>
+        <v>0.1348920863309352</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Temple_B.xlsx
+++ b/team_specific_matrix/Temple_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1758241758241758</v>
+        <v>0.194888178913738</v>
       </c>
       <c r="C2">
-        <v>0.6227106227106227</v>
+        <v>0.5878594249201278</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01098901098901099</v>
+        <v>0.009584664536741214</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1098901098901099</v>
+        <v>0.134185303514377</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08058608058608059</v>
+        <v>0.07348242811501597</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0115606936416185</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05202312138728324</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7630057803468208</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1734104046242775</v>
+        <v>0.1827956989247312</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7575757575757576</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2424242424242424</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04545454545454546</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01136363636363636</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02272727272727273</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2329545454545454</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01704545454545454</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1704545454545454</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="R6">
-        <v>0.08522727272727272</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="S6">
-        <v>0.4147727272727273</v>
+        <v>0.4123711340206185</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1933701657458564</v>
+        <v>0.195</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03867403314917127</v>
+        <v>0.035</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02209944751381215</v>
+        <v>0.02</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1215469613259668</v>
+        <v>0.13</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1657458563535912</v>
+        <v>0.165</v>
       </c>
       <c r="R7">
-        <v>0.07734806629834254</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S7">
-        <v>0.3812154696132597</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1141141141141141</v>
+        <v>0.112</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01501501501501501</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07807807807807808</v>
+        <v>0.07733333333333334</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1171171171171171</v>
+        <v>0.1173333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01201201201201201</v>
+        <v>0.01066666666666667</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1711711711711712</v>
+        <v>0.1706666666666667</v>
       </c>
       <c r="R8">
-        <v>0.09309309309309309</v>
+        <v>0.09066666666666667</v>
       </c>
       <c r="S8">
-        <v>0.3993993993993994</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1160220994475138</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0718232044198895</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1160220994475138</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03314917127071823</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.143646408839779</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="R9">
-        <v>0.09944751381215469</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="S9">
-        <v>0.4198895027624309</v>
+        <v>0.4068627450980392</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1087151841868823</v>
+        <v>0.1056845476381105</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01886792452830189</v>
+        <v>0.02081665332265813</v>
       </c>
       <c r="E10">
-        <v>0.0008984725965858042</v>
+        <v>0.0008006405124099279</v>
       </c>
       <c r="F10">
-        <v>0.06828391734052111</v>
+        <v>0.06725380304243395</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1248876909254268</v>
+        <v>0.1281024819855885</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01078167115902965</v>
+        <v>0.01040832666132906</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2129380053908356</v>
+        <v>0.211369095276221</v>
       </c>
       <c r="R10">
-        <v>0.08265947888589398</v>
+        <v>0.08086469175340272</v>
       </c>
       <c r="S10">
-        <v>0.3719676549865229</v>
+        <v>0.3746997598078463</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1494252873563219</v>
+        <v>0.1461794019933555</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07279693486590039</v>
+        <v>0.07973421926910298</v>
       </c>
       <c r="K11">
-        <v>0.1877394636015326</v>
+        <v>0.1993355481727575</v>
       </c>
       <c r="L11">
-        <v>0.5708812260536399</v>
+        <v>0.5548172757475083</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01915708812260536</v>
+        <v>0.01993355481727575</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8026315789473685</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1513157894736842</v>
+        <v>0.1637426900584795</v>
       </c>
       <c r="K12">
-        <v>0.006578947368421052</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L12">
-        <v>0.03289473684210526</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006578947368421052</v>
+        <v>0.01169590643274854</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5609756097560976</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3414634146341464</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0975609756097561</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02424242424242424</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07272727272727272</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="I15">
-        <v>0.08484848484848485</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K15">
-        <v>0.09696969696969697</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0303030303030303</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03636363636363636</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2545454545454545</v>
+        <v>0.266304347826087</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01142857142857143</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1142857142857143</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I16">
-        <v>0.08</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="K16">
-        <v>0.1428571428571428</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02285714285714286</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05714285714285714</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1714285714285714</v>
+        <v>0.1565656565656566</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01319261213720317</v>
+        <v>0.01425178147268409</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1688654353562005</v>
+        <v>0.171021377672209</v>
       </c>
       <c r="I17">
-        <v>0.1029023746701847</v>
+        <v>0.0997624703087886</v>
       </c>
       <c r="J17">
-        <v>0.3825857519788918</v>
+        <v>0.3871733966745843</v>
       </c>
       <c r="K17">
-        <v>0.1160949868073879</v>
+        <v>0.1092636579572447</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01055408970976253</v>
+        <v>0.009501187648456057</v>
       </c>
       <c r="N17">
-        <v>0.002638522427440633</v>
+        <v>0.002375296912114014</v>
       </c>
       <c r="O17">
-        <v>0.06860158311345646</v>
+        <v>0.07125890736342043</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1345646437994723</v>
+        <v>0.1353919239904988</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01183431952662722</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1597633136094675</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="I18">
-        <v>0.09467455621301775</v>
+        <v>0.1032608695652174</v>
       </c>
       <c r="J18">
-        <v>0.4556213017751479</v>
+        <v>0.4402173913043478</v>
       </c>
       <c r="K18">
-        <v>0.106508875739645</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005917159763313609</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04733727810650887</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1183431952662722</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01348920863309352</v>
+        <v>0.01430842607313196</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1888489208633093</v>
+        <v>0.1868044515103339</v>
       </c>
       <c r="I19">
-        <v>0.08992805755395683</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J19">
-        <v>0.3893884892086331</v>
+        <v>0.3863275039745628</v>
       </c>
       <c r="K19">
-        <v>0.09532374100719425</v>
+        <v>0.1009538950715421</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02428057553956835</v>
+        <v>0.02305246422893482</v>
       </c>
       <c r="N19">
-        <v>0.002697841726618705</v>
+        <v>0.002384737678855326</v>
       </c>
       <c r="O19">
-        <v>0.06115107913669065</v>
+        <v>0.05961844197138315</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1348920863309352</v>
+        <v>0.1383147853736089</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Temple_B.xlsx
+++ b/team_specific_matrix/Temple_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.194888178913738</v>
+        <v>0.1981707317073171</v>
       </c>
       <c r="C2">
-        <v>0.5878594249201278</v>
+        <v>0.5823170731707317</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009584664536741214</v>
+        <v>0.009146341463414634</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.134185303514377</v>
+        <v>0.1371951219512195</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07348242811501597</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01075268817204301</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04838709677419355</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7580645161290323</v>
+        <v>0.7564766839378239</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1827956989247312</v>
+        <v>0.1865284974093264</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3076923076923077</v>
+        <v>0.3170731707317073</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05670103092783505</v>
+        <v>0.065</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02061855670103093</v>
+        <v>0.02</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2371134020618557</v>
+        <v>0.24</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0154639175257732</v>
+        <v>0.015</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1649484536082474</v>
+        <v>0.16</v>
       </c>
       <c r="R6">
-        <v>0.08247422680412371</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="S6">
-        <v>0.4123711340206185</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.195</v>
+        <v>0.1980676328502415</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.035</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.13</v>
+        <v>0.1256038647342995</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.165</v>
+        <v>0.1690821256038647</v>
       </c>
       <c r="R7">
-        <v>0.07000000000000001</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="S7">
-        <v>0.38</v>
+        <v>0.3719806763285024</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.112</v>
+        <v>0.1113989637305699</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01333333333333333</v>
+        <v>0.01295336787564767</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07733333333333334</v>
+        <v>0.08031088082901554</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1173333333333333</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01066666666666667</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1706666666666667</v>
+        <v>0.1761658031088083</v>
       </c>
       <c r="R8">
-        <v>0.09066666666666667</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="S8">
-        <v>0.408</v>
+        <v>0.4015544041450777</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1274509803921569</v>
+        <v>0.1279620853080569</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004901960784313725</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06372549019607843</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1274509803921569</v>
+        <v>0.1279620853080569</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02941176470588235</v>
+        <v>0.02843601895734597</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.142156862745098</v>
+        <v>0.1516587677725119</v>
       </c>
       <c r="R9">
-        <v>0.09803921568627451</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="S9">
-        <v>0.4068627450980392</v>
+        <v>0.3981042654028436</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1056845476381105</v>
+        <v>0.1053846153846154</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02081665332265813</v>
+        <v>0.02076923076923077</v>
       </c>
       <c r="E10">
-        <v>0.0008006405124099279</v>
+        <v>0.0007692307692307692</v>
       </c>
       <c r="F10">
-        <v>0.06725380304243395</v>
+        <v>0.06615384615384616</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1281024819855885</v>
+        <v>0.1276923076923077</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01040832666132906</v>
+        <v>0.01</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.211369095276221</v>
+        <v>0.2146153846153846</v>
       </c>
       <c r="R10">
-        <v>0.08086469175340272</v>
+        <v>0.08307692307692308</v>
       </c>
       <c r="S10">
-        <v>0.3746997598078463</v>
+        <v>0.3715384615384615</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1461794019933555</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07973421926910298</v>
+        <v>0.08012820512820513</v>
       </c>
       <c r="K11">
-        <v>0.1993355481727575</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="L11">
-        <v>0.5548172757475083</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01993355481727575</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7894736842105263</v>
+        <v>0.7653631284916201</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1637426900584795</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="K12">
-        <v>0.005847953216374269</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.02923976608187134</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01169590643274854</v>
+        <v>0.0111731843575419</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5909090909090909</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3181818181818182</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02173913043478261</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07608695652173914</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="I15">
-        <v>0.08152173913043478</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="J15">
-        <v>0.391304347826087</v>
+        <v>0.3915343915343915</v>
       </c>
       <c r="K15">
-        <v>0.09239130434782608</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03260869565217391</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03804347826086957</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.266304347826087</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0101010101010101</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1363636363636364</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="J16">
-        <v>0.3939393939393939</v>
+        <v>0.3932038834951456</v>
       </c>
       <c r="K16">
-        <v>0.1313131313131313</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0202020202020202</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06060606060606061</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1565656565656566</v>
+        <v>0.1553398058252427</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01425178147268409</v>
+        <v>0.01569506726457399</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.171021377672209</v>
+        <v>0.1726457399103139</v>
       </c>
       <c r="I17">
-        <v>0.0997624703087886</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="J17">
-        <v>0.3871733966745843</v>
+        <v>0.3968609865470852</v>
       </c>
       <c r="K17">
-        <v>0.1092636579572447</v>
+        <v>0.1098654708520179</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009501187648456057</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="N17">
-        <v>0.002375296912114014</v>
+        <v>0.002242152466367713</v>
       </c>
       <c r="O17">
-        <v>0.07125890736342043</v>
+        <v>0.06726457399103139</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1353919239904988</v>
+        <v>0.1278026905829596</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0108695652173913</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1521739130434783</v>
+        <v>0.1494845360824742</v>
       </c>
       <c r="I18">
-        <v>0.1032608695652174</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="J18">
-        <v>0.4402173913043478</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="K18">
-        <v>0.1141304347826087</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005434782608695652</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04347826086956522</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1304347826086956</v>
+        <v>0.1237113402061856</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01430842607313196</v>
+        <v>0.01402961808261886</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1868044515103339</v>
+        <v>0.186282151208106</v>
       </c>
       <c r="I19">
-        <v>0.08823529411764706</v>
+        <v>0.08885424785658613</v>
       </c>
       <c r="J19">
-        <v>0.3863275039745628</v>
+        <v>0.3865939204988308</v>
       </c>
       <c r="K19">
-        <v>0.1009538950715421</v>
+        <v>0.102883865939205</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02305246422893482</v>
+        <v>0.02338269680436477</v>
       </c>
       <c r="N19">
-        <v>0.002384737678855326</v>
+        <v>0.002338269680436477</v>
       </c>
       <c r="O19">
-        <v>0.05961844197138315</v>
+        <v>0.06001558846453624</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1383147853736089</v>
+        <v>0.1356196414653157</v>
       </c>
     </row>
   </sheetData>
